--- a/tut05/output/0501ME02.xlsx
+++ b/tut05/output/0501ME02.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4165,6 +4165,1862 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CH101</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Chemistry - I</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CH110</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Chemistry Laboratory</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>EE101</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Electrical Sciences</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>English : Language Through Literature</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MA101</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Mathematics - I</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ME110</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Workshop - I</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ME111</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Engineering Drawing</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2-0-3</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PH101</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Physics - I</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CH102</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Chemistry - II</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Introduction to Computing</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>CS110</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Computing Laboratory</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>EE102</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Basic Electronics Laboratory</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0-0-4</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MA102</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mathematics - II</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ME101</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Engineering Mechanics</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PH102</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Physics - II</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PH110</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Physics Laboratory</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CS201</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Object Oriented Programming and Data Structures</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3-0-3</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>HS201</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Introductory Microeconomics</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>HS ELECTIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>MA201</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Mathematics - III</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ME201</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Solid Mechanics</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ME204</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Fluid Mechanics - I</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ME205</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Thermodynamics</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ME211</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Machine Drawing</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0-0-4</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>CH201</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Green Chemistry and Technology</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Elective-Sc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>EE280</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Electrical Machines</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>EE281</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Electrical Machines Laboratory</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>HS202</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Introductory Macroeconomics</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>HS Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ME202</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Engineering Materials</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ME203</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Advanced Solid Mechanics</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ME206</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Fluid Mechanics - II</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ME210</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Workshop - II</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0-0-6</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ME212</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering Laboratory - I</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0-0-4</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ME301</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Manufacturing Technology - I</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ME302</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Mechanical Measurements</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ME303</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Design of Machine Elements</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ME304</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Kinematics of Machinery</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ME305</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Heat and Mass Transfer</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ME310</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering Laboratory - II</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0-0-4</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ME321</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Applied Thermodynamics - I</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>HS311</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Diasporic Literature</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>HSS Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ME306</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Manufacturing Technology - II</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ME307</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Machine Design</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3-0-2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ME308</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Dynamics of Machinery</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ME309</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Control Systems</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ME311</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering Laboratory - III</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0-0-4</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ME322</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Applied Thermodynamics - II</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ME400</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Summer Training</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0-0-0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ME401</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Industrial Engineering and Operations Research</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ME411</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering Laboratory - IV</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0-0-4</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Departmental Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ME481</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Introduction to Biomechanics</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Departmental Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ME498</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Project - I</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0-0-8</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Departmental Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ME501</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Robotics: Advanced Concepts and Analysis</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Computational Fluid Dynamics</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>CE442</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Industrial Waste Treatment and Management</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>HS441</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Industrial and Organizational Psychology</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>HS Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ME442</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Aerodynamics</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Departmental Elective - IV</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ME499</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Project - II</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0-0-16</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ME512</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Mobile Robotics</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Departmental Elective - III</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
